--- a/biology/Zoologie/Alpiscorpius/Alpiscorpius.xlsx
+++ b/biology/Zoologie/Alpiscorpius/Alpiscorpius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alpiscorpius est un genre de scorpions de la famille des Euscorpiidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre se rencontrent en Europe et en Turquie.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Scorpion Files (21/02/2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Scorpion Files (21/02/2023) :
 Alpiscorpius alpha (Caporiaco, 1950)
 Alpiscorpius beta (Caporiacco, 1950)
 Alpiscorpius caporiaccoi (Bonacina, 1980)
@@ -593,10 +609,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit comme un sous-genre d'Euscorpius par Gantenbein, Fet, Largiadèr et Scholl en 1999. Il est élevé au rang de genre par Kovařík, Štundlová, Fet et Šťáhlavský en 2019[2]
-Tropea en 2021[3] a réparti les espèces de ce genre dans trois sous-genres : Alpiscorpius stricto sensu pour Alpiscorpius alpha (Caporiacco, 1950), Alpiscorpius beta (Caporiacco,1950), Alpiscorpius delta Kovařík, Štundlová, Fet &amp; Šťáhlavský, 2019, Alpiscorpius germanus (C. L. Koch, 1837), Alpiscorpius kappa Kovařík, Štundlová, Fet &amp; Šťáhlavský, 2019 et Alpiscorpius lambda Kovařík, Štundlová, Fet &amp; Šťáhlavský, 2019, Balkanscorpius pour Alpiscorpius caporiaccoi (Bonacina, 1980), Alpiscorpius dinaricus (Caporiacco, 1950), Alpiscorpius gamma (Caporiacco, 1950), Alpiscorpius omega Kovařík, Štundlová, Fet &amp; Šťáhlavský, 2019, Alpiscorpius omikron Kovařík, Štundlová, Fet &amp; Šťáhlavský, 2019, Alpiscorpius pavicevici Tropea, 2021, Alpiscorpius sigma Kovařík, Štundlová, Fet &amp; Šťáhlavský, 2019, Alpiscorpius ypsilon Kovařík, Štundlová, Fet &amp; Šťáhlavský, 2019, Alpiscorpius zloporubovici Tropea, 2021 et Hadzius pour Alpiscorpius karamani Tropea, 2021. Il ne place pas les espèces turques et caucasiennes Alpiscorpius mingrelicus (Kessler, 1874), Alpiscorpius phrygius (Bonacina, 1980) et Alpiscorpius uludagensis (Lacroix, 1995).
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit comme un sous-genre d'Euscorpius par Gantenbein, Fet, Largiadèr et Scholl en 1999. Il est élevé au rang de genre par Kovařík, Štundlová, Fet et Šťáhlavský en 2019
+Tropea en 2021 a réparti les espèces de ce genre dans trois sous-genres : Alpiscorpius stricto sensu pour Alpiscorpius alpha (Caporiacco, 1950), Alpiscorpius beta (Caporiacco,1950), Alpiscorpius delta Kovařík, Štundlová, Fet &amp; Šťáhlavský, 2019, Alpiscorpius germanus (C. L. Koch, 1837), Alpiscorpius kappa Kovařík, Štundlová, Fet &amp; Šťáhlavský, 2019 et Alpiscorpius lambda Kovařík, Štundlová, Fet &amp; Šťáhlavský, 2019, Balkanscorpius pour Alpiscorpius caporiaccoi (Bonacina, 1980), Alpiscorpius dinaricus (Caporiacco, 1950), Alpiscorpius gamma (Caporiacco, 1950), Alpiscorpius omega Kovařík, Štundlová, Fet &amp; Šťáhlavský, 2019, Alpiscorpius omikron Kovařík, Štundlová, Fet &amp; Šťáhlavský, 2019, Alpiscorpius pavicevici Tropea, 2021, Alpiscorpius sigma Kovařík, Štundlová, Fet &amp; Šťáhlavský, 2019, Alpiscorpius ypsilon Kovařík, Štundlová, Fet &amp; Šťáhlavský, 2019, Alpiscorpius zloporubovici Tropea, 2021 et Hadzius pour Alpiscorpius karamani Tropea, 2021. Il ne place pas les espèces turques et caucasiennes Alpiscorpius mingrelicus (Kessler, 1874), Alpiscorpius phrygius (Bonacina, 1980) et Alpiscorpius uludagensis (Lacroix, 1995).
 </t>
         </is>
       </c>
@@ -625,7 +643,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Gantenbein, Fet, Largiadèr &amp; Scholl, 1999 : « First DNA phylogeny of Euscorpius Thorell, 1876 (Scorpiones: Euscorpiidae) and its bearing on taxonomy and biogeography of this genus. » Biogeographica, vol. 75, no 2, p. 49–65.</t>
         </is>
